--- a/Code/Results/Cases/Case_1_113/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_113/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9679252329923911</v>
+        <v>1.00806623659493</v>
       </c>
       <c r="D2">
-        <v>1.02856826488327</v>
+        <v>1.027906497288259</v>
       </c>
       <c r="E2">
-        <v>0.9787302725798822</v>
+        <v>1.010674910026534</v>
       </c>
       <c r="F2">
-        <v>0.9841522360856564</v>
+        <v>1.022979768844466</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045420825123218</v>
+        <v>1.029697109906932</v>
       </c>
       <c r="J2">
-        <v>0.991109528052174</v>
+        <v>1.013334225431748</v>
       </c>
       <c r="K2">
-        <v>1.039643444143241</v>
+        <v>1.030724861401493</v>
       </c>
       <c r="L2">
-        <v>0.990494103033321</v>
+        <v>1.013544385695603</v>
       </c>
       <c r="M2">
-        <v>0.995836861647771</v>
+        <v>1.025812555103948</v>
       </c>
       <c r="N2">
-        <v>1.000922217915628</v>
+        <v>1.008573996590691</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9725554235888317</v>
+        <v>1.009046869467235</v>
       </c>
       <c r="D3">
-        <v>1.030355560496435</v>
+        <v>1.028273613981299</v>
       </c>
       <c r="E3">
-        <v>0.9824066522082736</v>
+        <v>1.011507227475956</v>
       </c>
       <c r="F3">
-        <v>0.9894395927083902</v>
+        <v>1.024145426759398</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045927622581864</v>
+        <v>1.029734777232134</v>
       </c>
       <c r="J3">
-        <v>0.9938232824273194</v>
+        <v>1.013946452146486</v>
       </c>
       <c r="K3">
-        <v>1.04061422770638</v>
+        <v>1.030900992768428</v>
       </c>
       <c r="L3">
-        <v>0.9932697050822508</v>
+        <v>1.014180750738654</v>
       </c>
       <c r="M3">
-        <v>1.000209403320421</v>
+        <v>1.026784015325728</v>
       </c>
       <c r="N3">
-        <v>1.001861738666233</v>
+        <v>1.00878141055065</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.975489322099484</v>
+        <v>1.009681980273114</v>
       </c>
       <c r="D4">
-        <v>1.031490607391151</v>
+        <v>1.028510937619181</v>
       </c>
       <c r="E4">
-        <v>0.9847429542209093</v>
+        <v>1.012046661634972</v>
       </c>
       <c r="F4">
-        <v>0.9927870616383817</v>
+        <v>1.024899744210854</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046236858075192</v>
+        <v>1.02975759793294</v>
       </c>
       <c r="J4">
-        <v>0.9955414967504933</v>
+        <v>1.014342636655408</v>
       </c>
       <c r="K4">
-        <v>1.041223262546451</v>
+        <v>1.031013990097006</v>
       </c>
       <c r="L4">
-        <v>0.995029074295751</v>
+        <v>1.014592750354448</v>
       </c>
       <c r="M4">
-        <v>1.002973327144275</v>
+        <v>1.027412108279556</v>
       </c>
       <c r="N4">
-        <v>1.002455908275563</v>
+        <v>1.008915492840075</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9767084389885088</v>
+        <v>1.009949118429452</v>
       </c>
       <c r="D5">
-        <v>1.031962721081563</v>
+        <v>1.028610652509268</v>
       </c>
       <c r="E5">
-        <v>0.9857153264905172</v>
+        <v>1.012273646972577</v>
       </c>
       <c r="F5">
-        <v>0.9941773409469058</v>
+        <v>1.025216873300158</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046362432853821</v>
+        <v>1.029766819342045</v>
       </c>
       <c r="J5">
-        <v>0.9962551106815122</v>
+        <v>1.014509200048662</v>
       </c>
       <c r="K5">
-        <v>1.041474776682086</v>
+        <v>1.031061260318145</v>
       </c>
       <c r="L5">
-        <v>0.9957602528381058</v>
+        <v>1.014766009207686</v>
       </c>
       <c r="M5">
-        <v>1.004120173353211</v>
+        <v>1.027676036966348</v>
       </c>
       <c r="N5">
-        <v>1.002702507664643</v>
+        <v>1.008971830032323</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9769123122484676</v>
+        <v>1.009993980161153</v>
       </c>
       <c r="D6">
-        <v>1.03204169646259</v>
+        <v>1.028627391737629</v>
       </c>
       <c r="E6">
-        <v>0.9858780275539816</v>
+        <v>1.012311770936157</v>
       </c>
       <c r="F6">
-        <v>0.9944097971220975</v>
+        <v>1.025270121491079</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046383259105055</v>
+        <v>1.029768345797604</v>
       </c>
       <c r="J6">
-        <v>0.9963744269857572</v>
+        <v>1.014537167197786</v>
       </c>
       <c r="K6">
-        <v>1.041516743256176</v>
+        <v>1.031069183445186</v>
       </c>
       <c r="L6">
-        <v>0.9958825335057782</v>
+        <v>1.014795103293874</v>
       </c>
       <c r="M6">
-        <v>1.004311863406057</v>
+        <v>1.027720344616224</v>
       </c>
       <c r="N6">
-        <v>1.002743728711552</v>
+        <v>1.008981287469251</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9755056674153442</v>
+        <v>1.009685549245985</v>
       </c>
       <c r="D7">
-        <v>1.03149693558096</v>
+        <v>1.028512270236885</v>
       </c>
       <c r="E7">
-        <v>0.9847559851603708</v>
+        <v>1.012049693811009</v>
       </c>
       <c r="F7">
-        <v>0.9928057045407909</v>
+        <v>1.024903981650223</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046238553347634</v>
+        <v>1.029757722614105</v>
       </c>
       <c r="J7">
-        <v>0.9955510659628765</v>
+        <v>1.014344862255004</v>
       </c>
       <c r="K7">
-        <v>1.041226640995963</v>
+        <v>1.031014622644546</v>
       </c>
       <c r="L7">
-        <v>0.9950388771845206</v>
+        <v>1.014595065235426</v>
       </c>
       <c r="M7">
-        <v>1.002988710014517</v>
+        <v>1.027415635385727</v>
       </c>
       <c r="N7">
-        <v>1.002459215745714</v>
+        <v>1.008916245742539</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9695032565023088</v>
+        <v>1.008397526688504</v>
       </c>
       <c r="D8">
-        <v>1.029176778613823</v>
+        <v>1.028030611565365</v>
       </c>
       <c r="E8">
-        <v>0.9799817701839546</v>
+        <v>1.01095601513833</v>
       </c>
       <c r="F8">
-        <v>0.9859548216055724</v>
+        <v>1.023373696180551</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045596000852175</v>
+        <v>1.029710160793349</v>
       </c>
       <c r="J8">
-        <v>0.9920346707506909</v>
+        <v>1.013541123237926</v>
       </c>
       <c r="K8">
-        <v>1.039975519454771</v>
+        <v>1.030784586191858</v>
       </c>
       <c r="L8">
-        <v>0.9914399069083227</v>
+        <v>1.013759400501455</v>
       </c>
       <c r="M8">
-        <v>0.9973284659195115</v>
+        <v>1.026140969402435</v>
       </c>
       <c r="N8">
-        <v>1.001242648414229</v>
+        <v>1.00864411954181</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9584223619332898</v>
+        <v>1.006132287613383</v>
       </c>
       <c r="D9">
-        <v>1.024920460933469</v>
+        <v>1.027180229211031</v>
       </c>
       <c r="E9">
-        <v>0.9712248832895592</v>
+        <v>1.009035507368092</v>
       </c>
       <c r="F9">
-        <v>0.9732851869203244</v>
+        <v>1.020677590000688</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044318222316454</v>
+        <v>1.029614491710792</v>
       </c>
       <c r="J9">
-        <v>0.9855338787503096</v>
+        <v>1.012125103867247</v>
       </c>
       <c r="K9">
-        <v>1.037621757890695</v>
+        <v>1.030371849220165</v>
       </c>
       <c r="L9">
-        <v>0.98480273209664</v>
+        <v>1.012288630880148</v>
       </c>
       <c r="M9">
-        <v>0.9868270927015483</v>
+        <v>1.023890975209704</v>
       </c>
       <c r="N9">
-        <v>0.9989884467767141</v>
+        <v>1.00816362634608</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9506544168021264</v>
+        <v>1.004625114266183</v>
       </c>
       <c r="D10">
-        <v>1.021964678805181</v>
+        <v>1.026612325174861</v>
       </c>
       <c r="E10">
-        <v>0.9651284817072465</v>
+        <v>1.007759718585061</v>
       </c>
       <c r="F10">
-        <v>0.9643885262240539</v>
+        <v>1.018880488782785</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043365007108549</v>
+        <v>1.02954278166494</v>
       </c>
       <c r="J10">
-        <v>0.9809725157316163</v>
+        <v>1.011181298605331</v>
       </c>
       <c r="K10">
-        <v>1.035948364406167</v>
+        <v>1.03009180356355</v>
       </c>
       <c r="L10">
-        <v>0.9801572498987675</v>
+        <v>1.01130934665513</v>
       </c>
       <c r="M10">
-        <v>0.9794319682118667</v>
+        <v>1.022388389553086</v>
       </c>
       <c r="N10">
-        <v>0.9974038144561062</v>
+        <v>1.007842658972998</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9471902499905126</v>
+        <v>1.00397320194103</v>
       </c>
       <c r="D11">
-        <v>1.020655459162777</v>
+        <v>1.026366208599601</v>
       </c>
       <c r="E11">
-        <v>0.9624207536201985</v>
+        <v>1.007208377073682</v>
       </c>
       <c r="F11">
-        <v>0.9604174561604067</v>
+        <v>1.018102394537615</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042927341544132</v>
+        <v>1.029509858319811</v>
       </c>
       <c r="J11">
-        <v>0.9789378535156908</v>
+        <v>1.010772674633538</v>
       </c>
       <c r="K11">
-        <v>1.035198080555724</v>
+        <v>1.029969397534717</v>
       </c>
       <c r="L11">
-        <v>0.9780879475210849</v>
+        <v>1.010885603851498</v>
       </c>
       <c r="M11">
-        <v>0.9761265457984613</v>
+        <v>1.021737140797976</v>
       </c>
       <c r="N11">
-        <v>0.996696388783303</v>
+        <v>1.007703528117989</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9458874357771382</v>
+        <v>1.00373115848209</v>
       </c>
       <c r="D12">
-        <v>1.020164629389123</v>
+        <v>1.026274760382811</v>
       </c>
       <c r="E12">
-        <v>0.9614041622562974</v>
+        <v>1.007003747827305</v>
       </c>
       <c r="F12">
-        <v>0.9589234694373697</v>
+        <v>1.017813384815855</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042760948021032</v>
+        <v>1.029497348511827</v>
       </c>
       <c r="J12">
-        <v>0.9781726222463955</v>
+        <v>1.010620901337706</v>
       </c>
       <c r="K12">
-        <v>1.034915441887422</v>
+        <v>1.029923759845133</v>
       </c>
       <c r="L12">
-        <v>0.9773101338143757</v>
+        <v>1.01072825152292</v>
       </c>
       <c r="M12">
-        <v>0.9748823383820322</v>
+        <v>1.02149514498474</v>
       </c>
       <c r="N12">
-        <v>0.9964302516471301</v>
+        <v>1.007651826433479</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9461676371518585</v>
+        <v>1.003783072836349</v>
       </c>
       <c r="D13">
-        <v>1.020270120895949</v>
+        <v>1.026294377640812</v>
       </c>
       <c r="E13">
-        <v>0.9616227245572108</v>
+        <v>1.007047634082525</v>
       </c>
       <c r="F13">
-        <v>0.9592448112585495</v>
+        <v>1.01787537797338</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042796814468311</v>
+        <v>1.029500044595197</v>
       </c>
       <c r="J13">
-        <v>0.9783372041347208</v>
+        <v>1.010653456864576</v>
       </c>
       <c r="K13">
-        <v>1.034976249091496</v>
+        <v>1.029933556985607</v>
       </c>
       <c r="L13">
-        <v>0.9774774015226267</v>
+        <v>1.010762002104766</v>
       </c>
       <c r="M13">
-        <v>0.9751499838321728</v>
+        <v>1.021547058117788</v>
       </c>
       <c r="N13">
-        <v>0.9964874942785529</v>
+        <v>1.007662917625374</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.947082892544693</v>
+        <v>1.003953192394305</v>
       </c>
       <c r="D14">
-        <v>1.02061498008721</v>
+        <v>1.026358650052763</v>
       </c>
       <c r="E14">
-        <v>0.9623369463044019</v>
+        <v>1.007191459015773</v>
       </c>
       <c r="F14">
-        <v>0.9602943561741726</v>
+        <v>1.018078504719175</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042913665927678</v>
+        <v>1.029508829975547</v>
       </c>
       <c r="J14">
-        <v>0.9788747955300482</v>
+        <v>1.010760128843632</v>
       </c>
       <c r="K14">
-        <v>1.035174798672268</v>
+        <v>1.029965628582615</v>
       </c>
       <c r="L14">
-        <v>0.9780238435630328</v>
+        <v>1.010872596145965</v>
       </c>
       <c r="M14">
-        <v>0.976024039836101</v>
+        <v>1.021717139246284</v>
       </c>
       <c r="N14">
-        <v>0.9966744595495247</v>
+        <v>1.00769925489403</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9476446525230653</v>
+        <v>1.004058022691451</v>
       </c>
       <c r="D15">
-        <v>1.020826855637518</v>
+        <v>1.026398246550641</v>
       </c>
       <c r="E15">
-        <v>0.9627755489542452</v>
+        <v>1.007280095997364</v>
       </c>
       <c r="F15">
-        <v>0.9609384689631661</v>
+        <v>1.018203659012882</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042985152564872</v>
+        <v>1.029514205775396</v>
       </c>
       <c r="J15">
-        <v>0.979204752643893</v>
+        <v>1.010825854019764</v>
       </c>
       <c r="K15">
-        <v>1.035296605437767</v>
+        <v>1.029985366379101</v>
       </c>
       <c r="L15">
-        <v>0.9783592920666327</v>
+        <v>1.010940742711412</v>
       </c>
       <c r="M15">
-        <v>0.9765603694977653</v>
+        <v>1.021821919515923</v>
       </c>
       <c r="N15">
-        <v>0.9967892033839627</v>
+        <v>1.007721640537603</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9508821229005033</v>
+        <v>1.004668394373045</v>
       </c>
       <c r="D16">
-        <v>1.022050939175488</v>
+        <v>1.02662865486379</v>
       </c>
       <c r="E16">
-        <v>0.9653067019271923</v>
+        <v>1.007796332197576</v>
       </c>
       <c r="F16">
-        <v>0.9646494780686216</v>
+        <v>1.018932129628978</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043393521742059</v>
+        <v>1.029544927288855</v>
       </c>
       <c r="J16">
-        <v>0.9811062513072981</v>
+        <v>1.011208418713553</v>
       </c>
       <c r="K16">
-        <v>1.035997609433295</v>
+        <v>1.030099903247808</v>
       </c>
       <c r="L16">
-        <v>0.9802933233782137</v>
+        <v>1.011337475299468</v>
       </c>
       <c r="M16">
-        <v>0.9796490861901198</v>
+        <v>1.022431597741799</v>
       </c>
       <c r="N16">
-        <v>0.9974503014468277</v>
+        <v>1.007851889491391</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9528853193693808</v>
+        <v>1.005051452856726</v>
       </c>
       <c r="D17">
-        <v>1.022810836359718</v>
+        <v>1.026773129034443</v>
       </c>
       <c r="E17">
-        <v>0.9668758181622237</v>
+        <v>1.008120444136522</v>
       </c>
       <c r="F17">
-        <v>0.9669447438466929</v>
+        <v>1.019389096537539</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043642954352498</v>
+        <v>1.029563697276315</v>
       </c>
       <c r="J17">
-        <v>0.9822827111241421</v>
+        <v>1.011448405046783</v>
       </c>
       <c r="K17">
-        <v>1.036430390534018</v>
+        <v>1.030171443724583</v>
       </c>
       <c r="L17">
-        <v>0.9814906787590233</v>
+        <v>1.011586414153079</v>
       </c>
       <c r="M17">
-        <v>0.9815582852337191</v>
+        <v>1.022813866999529</v>
       </c>
       <c r="N17">
-        <v>0.9978591789131225</v>
+        <v>1.007933551255143</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9540441123743377</v>
+        <v>1.005274952278349</v>
       </c>
       <c r="D18">
-        <v>1.023251248406059</v>
+        <v>1.026857377938861</v>
       </c>
       <c r="E18">
-        <v>0.9677845450554483</v>
+        <v>1.008309597633056</v>
       </c>
       <c r="F18">
-        <v>0.9682721549725353</v>
+        <v>1.019655643645727</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043786045878714</v>
+        <v>1.029574464784205</v>
       </c>
       <c r="J18">
-        <v>0.9829632104733877</v>
+        <v>1.011588389809871</v>
       </c>
       <c r="K18">
-        <v>1.03668035177874</v>
+        <v>1.030213061568839</v>
       </c>
       <c r="L18">
-        <v>0.9821835370673511</v>
+        <v>1.011731644282511</v>
       </c>
       <c r="M18">
-        <v>0.9826619884172459</v>
+        <v>1.023036778440883</v>
       </c>
       <c r="N18">
-        <v>0.9980956303554196</v>
+        <v>1.007981168705495</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9544376239213164</v>
+        <v>1.005351171318009</v>
       </c>
       <c r="D19">
-        <v>1.023400942151207</v>
+        <v>1.026886101109538</v>
       </c>
       <c r="E19">
-        <v>0.9680933107343762</v>
+        <v>1.008374111786643</v>
       </c>
       <c r="F19">
-        <v>0.9687228701838428</v>
+        <v>1.01974653035401</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0438344319702</v>
+        <v>1.029578105553583</v>
       </c>
       <c r="J19">
-        <v>0.9831942897868892</v>
+        <v>1.011636121799599</v>
       </c>
       <c r="K19">
-        <v>1.03676516531789</v>
+        <v>1.030227233395076</v>
       </c>
       <c r="L19">
-        <v>0.982418858988125</v>
+        <v>1.011781168790274</v>
       </c>
       <c r="M19">
-        <v>0.9830366698338594</v>
+        <v>1.023112775347161</v>
       </c>
       <c r="N19">
-        <v>0.9981759132035822</v>
+        <v>1.00799740256348</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9526713988710032</v>
+        <v>1.005010347283887</v>
       </c>
       <c r="D20">
-        <v>1.022729599424179</v>
+        <v>1.026757630422134</v>
       </c>
       <c r="E20">
-        <v>0.9667081446922313</v>
+        <v>1.008085659179791</v>
       </c>
       <c r="F20">
-        <v>0.9666996682422101</v>
+        <v>1.019340067689683</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043616441230095</v>
+        <v>1.029561702120742</v>
       </c>
       <c r="J20">
-        <v>0.9821570823262137</v>
+        <v>1.011422656285945</v>
       </c>
       <c r="K20">
-        <v>1.036384213603554</v>
+        <v>1.030163779529218</v>
       </c>
       <c r="L20">
-        <v>0.9813627902715162</v>
+        <v>1.011559702438446</v>
       </c>
       <c r="M20">
-        <v>0.9813544766172232</v>
+        <v>1.022772859305866</v>
       </c>
       <c r="N20">
-        <v>0.9978155224256781</v>
+        <v>1.007924791216287</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9468138242641815</v>
+        <v>1.003903093503159</v>
       </c>
       <c r="D21">
-        <v>1.02051355361519</v>
+        <v>1.026339724229104</v>
       </c>
       <c r="E21">
-        <v>0.9621269296561433</v>
+        <v>1.007149101637055</v>
       </c>
       <c r="F21">
-        <v>0.9599858239861059</v>
+        <v>1.018018688705476</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042879362362649</v>
+        <v>1.029506250640667</v>
       </c>
       <c r="J21">
-        <v>0.978716753972444</v>
+        <v>1.010728716385341</v>
       </c>
       <c r="K21">
-        <v>1.035116440557327</v>
+        <v>1.029956188996813</v>
       </c>
       <c r="L21">
-        <v>0.9778631877177136</v>
+        <v>1.010840027721789</v>
       </c>
       <c r="M21">
-        <v>0.9757671132480228</v>
+        <v>1.021667057161096</v>
       </c>
       <c r="N21">
-        <v>0.9966194973548859</v>
+        <v>1.007688555087603</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9430374376283618</v>
+        <v>1.003207531305793</v>
       </c>
       <c r="D22">
-        <v>1.019093979822405</v>
+        <v>1.026076799982181</v>
       </c>
       <c r="E22">
-        <v>0.9591835950970402</v>
+        <v>1.006561197304721</v>
       </c>
       <c r="F22">
-        <v>0.9556542793969007</v>
+        <v>1.017187937964403</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042393755893393</v>
+        <v>1.029469762904783</v>
       </c>
       <c r="J22">
-        <v>0.9764986217308872</v>
+        <v>1.010292454363565</v>
       </c>
       <c r="K22">
-        <v>1.034296439528969</v>
+        <v>1.029824681952121</v>
       </c>
       <c r="L22">
-        <v>0.9756094427023067</v>
+        <v>1.010387798038532</v>
       </c>
       <c r="M22">
-        <v>0.9721585727062295</v>
+        <v>1.020971257231229</v>
       </c>
       <c r="N22">
-        <v>0.9958479287547052</v>
+        <v>1.007539895204705</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9450485733563651</v>
+        <v>1.003576203927677</v>
       </c>
       <c r="D23">
-        <v>1.019849053217971</v>
+        <v>1.026216196538512</v>
       </c>
       <c r="E23">
-        <v>0.9607500956640225</v>
+        <v>1.006872766536364</v>
       </c>
       <c r="F23">
-        <v>0.9579613627098441</v>
+        <v>1.017628329743178</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04265331602026</v>
+        <v>1.029489259371243</v>
       </c>
       <c r="J23">
-        <v>0.9776798988394027</v>
+        <v>1.010523720685779</v>
       </c>
       <c r="K23">
-        <v>1.034733340087248</v>
+        <v>1.029894489416517</v>
       </c>
       <c r="L23">
-        <v>0.9768094359556948</v>
+        <v>1.01062750889651</v>
       </c>
       <c r="M23">
-        <v>0.9740809080299924</v>
+        <v>1.021340164955155</v>
       </c>
       <c r="N23">
-        <v>0.9962588689770848</v>
+        <v>1.007618714759946</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.95276809004913</v>
+        <v>1.005028920913016</v>
       </c>
       <c r="D24">
-        <v>1.02276631561485</v>
+        <v>1.026764633641311</v>
       </c>
       <c r="E24">
-        <v>0.9667839291955546</v>
+        <v>1.008101376681624</v>
       </c>
       <c r="F24">
-        <v>0.9668104424402694</v>
+        <v>1.019362221696668</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043628428774412</v>
+        <v>1.029562604204099</v>
       </c>
       <c r="J24">
-        <v>0.9822138661792919</v>
+        <v>1.011434291027779</v>
       </c>
       <c r="K24">
-        <v>1.036405086605726</v>
+        <v>1.030167242990805</v>
       </c>
       <c r="L24">
-        <v>0.9814205946541023</v>
+        <v>1.011571772225026</v>
       </c>
       <c r="M24">
-        <v>0.9814465994864483</v>
+        <v>1.02279138910188</v>
       </c>
       <c r="N24">
-        <v>0.9978352552044024</v>
+        <v>1.007928749545506</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9613508801247588</v>
+        <v>1.006717380904985</v>
       </c>
       <c r="D25">
-        <v>1.026041249168863</v>
+        <v>1.027400255263292</v>
       </c>
       <c r="E25">
-        <v>0.9735322047177737</v>
+        <v>1.009531206342729</v>
       </c>
       <c r="F25">
-        <v>0.9766361723584436</v>
+        <v>1.021374544595279</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0446661496055</v>
+        <v>1.029640625409049</v>
       </c>
       <c r="J25">
-        <v>0.9872528168844105</v>
+        <v>1.012491144060359</v>
       </c>
       <c r="K25">
-        <v>1.03824832413762</v>
+        <v>1.030479418675994</v>
       </c>
       <c r="L25">
-        <v>0.9865557824850613</v>
+        <v>1.012668645916531</v>
       </c>
       <c r="M25">
-        <v>0.9896083432953157</v>
+        <v>1.024473109964403</v>
       </c>
       <c r="N25">
-        <v>0.9995850473325638</v>
+        <v>1.008287959003933</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_113/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_113/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00806623659493</v>
+        <v>0.9679252329923912</v>
       </c>
       <c r="D2">
-        <v>1.027906497288259</v>
+        <v>1.02856826488327</v>
       </c>
       <c r="E2">
-        <v>1.010674910026534</v>
+        <v>0.978730272579882</v>
       </c>
       <c r="F2">
-        <v>1.022979768844466</v>
+        <v>0.9841522360856566</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029697109906932</v>
+        <v>1.045420825123218</v>
       </c>
       <c r="J2">
-        <v>1.013334225431748</v>
+        <v>0.991109528052174</v>
       </c>
       <c r="K2">
-        <v>1.030724861401493</v>
+        <v>1.03964344414324</v>
       </c>
       <c r="L2">
-        <v>1.013544385695603</v>
+        <v>0.9904941030333209</v>
       </c>
       <c r="M2">
-        <v>1.025812555103948</v>
+        <v>0.995836861647771</v>
       </c>
       <c r="N2">
-        <v>1.008573996590691</v>
+        <v>1.000922217915628</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009046869467235</v>
+        <v>0.9725554235888308</v>
       </c>
       <c r="D3">
-        <v>1.028273613981299</v>
+        <v>1.030355560496434</v>
       </c>
       <c r="E3">
-        <v>1.011507227475956</v>
+        <v>0.9824066522082727</v>
       </c>
       <c r="F3">
-        <v>1.024145426759398</v>
+        <v>0.9894395927083898</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029734777232134</v>
+        <v>1.045927622581864</v>
       </c>
       <c r="J3">
-        <v>1.013946452146486</v>
+        <v>0.9938232824273188</v>
       </c>
       <c r="K3">
-        <v>1.030900992768428</v>
+        <v>1.04061422770638</v>
       </c>
       <c r="L3">
-        <v>1.014180750738654</v>
+        <v>0.99326970508225</v>
       </c>
       <c r="M3">
-        <v>1.026784015325728</v>
+        <v>1.00020940332042</v>
       </c>
       <c r="N3">
-        <v>1.00878141055065</v>
+        <v>1.001861738666232</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009681980273114</v>
+        <v>0.9754893220994838</v>
       </c>
       <c r="D4">
-        <v>1.028510937619181</v>
+        <v>1.031490607391151</v>
       </c>
       <c r="E4">
-        <v>1.012046661634972</v>
+        <v>0.9847429542209089</v>
       </c>
       <c r="F4">
-        <v>1.024899744210854</v>
+        <v>0.9927870616383815</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02975759793294</v>
+        <v>1.046236858075192</v>
       </c>
       <c r="J4">
-        <v>1.014342636655408</v>
+        <v>0.995541496750493</v>
       </c>
       <c r="K4">
-        <v>1.031013990097006</v>
+        <v>1.041223262546451</v>
       </c>
       <c r="L4">
-        <v>1.014592750354448</v>
+        <v>0.9950290742957505</v>
       </c>
       <c r="M4">
-        <v>1.027412108279556</v>
+        <v>1.002973327144275</v>
       </c>
       <c r="N4">
-        <v>1.008915492840075</v>
+        <v>1.002455908275563</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009949118429452</v>
+        <v>0.976708438988509</v>
       </c>
       <c r="D5">
-        <v>1.028610652509268</v>
+        <v>1.031962721081563</v>
       </c>
       <c r="E5">
-        <v>1.012273646972577</v>
+        <v>0.9857153264905172</v>
       </c>
       <c r="F5">
-        <v>1.025216873300158</v>
+        <v>0.994177340946906</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029766819342045</v>
+        <v>1.046362432853821</v>
       </c>
       <c r="J5">
-        <v>1.014509200048662</v>
+        <v>0.9962551106815125</v>
       </c>
       <c r="K5">
-        <v>1.031061260318145</v>
+        <v>1.041474776682085</v>
       </c>
       <c r="L5">
-        <v>1.014766009207686</v>
+        <v>0.9957602528381059</v>
       </c>
       <c r="M5">
-        <v>1.027676036966348</v>
+        <v>1.004120173353212</v>
       </c>
       <c r="N5">
-        <v>1.008971830032323</v>
+        <v>1.002702507664643</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009993980161153</v>
+        <v>0.9769123122484672</v>
       </c>
       <c r="D6">
-        <v>1.028627391737629</v>
+        <v>1.03204169646259</v>
       </c>
       <c r="E6">
-        <v>1.012311770936157</v>
+        <v>0.985878027553981</v>
       </c>
       <c r="F6">
-        <v>1.025270121491079</v>
+        <v>0.994409797122097</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029768345797604</v>
+        <v>1.046383259105054</v>
       </c>
       <c r="J6">
-        <v>1.014537167197786</v>
+        <v>0.9963744269857566</v>
       </c>
       <c r="K6">
-        <v>1.031069183445186</v>
+        <v>1.041516743256176</v>
       </c>
       <c r="L6">
-        <v>1.014795103293874</v>
+        <v>0.9958825335057774</v>
       </c>
       <c r="M6">
-        <v>1.027720344616224</v>
+        <v>1.004311863406057</v>
       </c>
       <c r="N6">
-        <v>1.008981287469251</v>
+        <v>1.002743728711551</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009685549245985</v>
+        <v>0.9755056674153435</v>
       </c>
       <c r="D7">
-        <v>1.028512270236885</v>
+        <v>1.03149693558096</v>
       </c>
       <c r="E7">
-        <v>1.012049693811009</v>
+        <v>0.9847559851603701</v>
       </c>
       <c r="F7">
-        <v>1.024903981650223</v>
+        <v>0.9928057045407905</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029757722614105</v>
+        <v>1.046238553347634</v>
       </c>
       <c r="J7">
-        <v>1.014344862255004</v>
+        <v>0.995551065962876</v>
       </c>
       <c r="K7">
-        <v>1.031014622644546</v>
+        <v>1.041226640995962</v>
       </c>
       <c r="L7">
-        <v>1.014595065235426</v>
+        <v>0.9950388771845199</v>
       </c>
       <c r="M7">
-        <v>1.027415635385727</v>
+        <v>1.002988710014516</v>
       </c>
       <c r="N7">
-        <v>1.008916245742539</v>
+        <v>1.002459215745714</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008397526688504</v>
+        <v>0.9695032565023087</v>
       </c>
       <c r="D8">
-        <v>1.028030611565365</v>
+        <v>1.029176778613822</v>
       </c>
       <c r="E8">
-        <v>1.01095601513833</v>
+        <v>0.9799817701839545</v>
       </c>
       <c r="F8">
-        <v>1.023373696180551</v>
+        <v>0.985954821605572</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029710160793349</v>
+        <v>1.045596000852174</v>
       </c>
       <c r="J8">
-        <v>1.013541123237926</v>
+        <v>0.9920346707506907</v>
       </c>
       <c r="K8">
-        <v>1.030784586191858</v>
+        <v>1.03997551945477</v>
       </c>
       <c r="L8">
-        <v>1.013759400501455</v>
+        <v>0.9914399069083225</v>
       </c>
       <c r="M8">
-        <v>1.026140969402435</v>
+        <v>0.9973284659195111</v>
       </c>
       <c r="N8">
-        <v>1.00864411954181</v>
+        <v>1.001242648414229</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006132287613383</v>
+        <v>0.9584223619332901</v>
       </c>
       <c r="D9">
-        <v>1.027180229211031</v>
+        <v>1.024920460933469</v>
       </c>
       <c r="E9">
-        <v>1.009035507368092</v>
+        <v>0.9712248832895591</v>
       </c>
       <c r="F9">
-        <v>1.020677590000688</v>
+        <v>0.9732851869203248</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029614491710792</v>
+        <v>1.044318222316454</v>
       </c>
       <c r="J9">
-        <v>1.012125103867247</v>
+        <v>0.9855338787503097</v>
       </c>
       <c r="K9">
-        <v>1.030371849220165</v>
+        <v>1.037621757890695</v>
       </c>
       <c r="L9">
-        <v>1.012288630880148</v>
+        <v>0.9848027320966399</v>
       </c>
       <c r="M9">
-        <v>1.023890975209704</v>
+        <v>0.9868270927015489</v>
       </c>
       <c r="N9">
-        <v>1.00816362634608</v>
+        <v>0.9989884467767142</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004625114266183</v>
+        <v>0.9506544168021266</v>
       </c>
       <c r="D10">
-        <v>1.026612325174861</v>
+        <v>1.021964678805181</v>
       </c>
       <c r="E10">
-        <v>1.007759718585061</v>
+        <v>0.9651284817072466</v>
       </c>
       <c r="F10">
-        <v>1.018880488782785</v>
+        <v>0.9643885262240544</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02954278166494</v>
+        <v>1.043365007108548</v>
       </c>
       <c r="J10">
-        <v>1.011181298605331</v>
+        <v>0.9809725157316165</v>
       </c>
       <c r="K10">
-        <v>1.03009180356355</v>
+        <v>1.035948364406166</v>
       </c>
       <c r="L10">
-        <v>1.01130934665513</v>
+        <v>0.9801572498987676</v>
       </c>
       <c r="M10">
-        <v>1.022388389553086</v>
+        <v>0.9794319682118671</v>
       </c>
       <c r="N10">
-        <v>1.007842658972998</v>
+        <v>0.9974038144561063</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.00397320194103</v>
+        <v>0.9471902499905125</v>
       </c>
       <c r="D11">
-        <v>1.026366208599601</v>
+        <v>1.020655459162777</v>
       </c>
       <c r="E11">
-        <v>1.007208377073682</v>
+        <v>0.9624207536201981</v>
       </c>
       <c r="F11">
-        <v>1.018102394537615</v>
+        <v>0.9604174561604066</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029509858319811</v>
+        <v>1.042927341544132</v>
       </c>
       <c r="J11">
-        <v>1.010772674633538</v>
+        <v>0.9789378535156906</v>
       </c>
       <c r="K11">
-        <v>1.029969397534717</v>
+        <v>1.035198080555724</v>
       </c>
       <c r="L11">
-        <v>1.010885603851498</v>
+        <v>0.9780879475210844</v>
       </c>
       <c r="M11">
-        <v>1.021737140797976</v>
+        <v>0.9761265457984611</v>
       </c>
       <c r="N11">
-        <v>1.007703528117989</v>
+        <v>0.9966963887833029</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00373115848209</v>
+        <v>0.9458874357771379</v>
       </c>
       <c r="D12">
-        <v>1.026274760382811</v>
+        <v>1.020164629389124</v>
       </c>
       <c r="E12">
-        <v>1.007003747827305</v>
+        <v>0.9614041622562973</v>
       </c>
       <c r="F12">
-        <v>1.017813384815855</v>
+        <v>0.9589234694373693</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029497348511827</v>
+        <v>1.042760948021032</v>
       </c>
       <c r="J12">
-        <v>1.010620901337706</v>
+        <v>0.9781726222463952</v>
       </c>
       <c r="K12">
-        <v>1.029923759845133</v>
+        <v>1.034915441887422</v>
       </c>
       <c r="L12">
-        <v>1.01072825152292</v>
+        <v>0.9773101338143755</v>
       </c>
       <c r="M12">
-        <v>1.02149514498474</v>
+        <v>0.9748823383820318</v>
       </c>
       <c r="N12">
-        <v>1.007651826433479</v>
+        <v>0.9964302516471301</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003783072836349</v>
+        <v>0.9461676371518583</v>
       </c>
       <c r="D13">
-        <v>1.026294377640812</v>
+        <v>1.020270120895949</v>
       </c>
       <c r="E13">
-        <v>1.007047634082525</v>
+        <v>0.96162272455721</v>
       </c>
       <c r="F13">
-        <v>1.01787537797338</v>
+        <v>0.9592448112585495</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029500044595197</v>
+        <v>1.042796814468311</v>
       </c>
       <c r="J13">
-        <v>1.010653456864576</v>
+        <v>0.9783372041347204</v>
       </c>
       <c r="K13">
-        <v>1.029933556985607</v>
+        <v>1.034976249091496</v>
       </c>
       <c r="L13">
-        <v>1.010762002104766</v>
+        <v>0.9774774015226261</v>
       </c>
       <c r="M13">
-        <v>1.021547058117788</v>
+        <v>0.9751499838321728</v>
       </c>
       <c r="N13">
-        <v>1.007662917625374</v>
+        <v>0.9964874942785527</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003953192394305</v>
+        <v>0.947082892544693</v>
       </c>
       <c r="D14">
-        <v>1.026358650052763</v>
+        <v>1.02061498008721</v>
       </c>
       <c r="E14">
-        <v>1.007191459015773</v>
+        <v>0.9623369463044018</v>
       </c>
       <c r="F14">
-        <v>1.018078504719175</v>
+        <v>0.9602943561741726</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029508829975547</v>
+        <v>1.042913665927678</v>
       </c>
       <c r="J14">
-        <v>1.010760128843632</v>
+        <v>0.9788747955300481</v>
       </c>
       <c r="K14">
-        <v>1.029965628582615</v>
+        <v>1.035174798672268</v>
       </c>
       <c r="L14">
-        <v>1.010872596145965</v>
+        <v>0.9780238435630327</v>
       </c>
       <c r="M14">
-        <v>1.021717139246284</v>
+        <v>0.9760240398361009</v>
       </c>
       <c r="N14">
-        <v>1.00769925489403</v>
+        <v>0.9966744595495247</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004058022691451</v>
+        <v>0.9476446525230653</v>
       </c>
       <c r="D15">
-        <v>1.026398246550641</v>
+        <v>1.020826855637518</v>
       </c>
       <c r="E15">
-        <v>1.007280095997364</v>
+        <v>0.962775548954245</v>
       </c>
       <c r="F15">
-        <v>1.018203659012882</v>
+        <v>0.9609384689631659</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029514205775396</v>
+        <v>1.042985152564872</v>
       </c>
       <c r="J15">
-        <v>1.010825854019764</v>
+        <v>0.979204752643893</v>
       </c>
       <c r="K15">
-        <v>1.029985366379101</v>
+        <v>1.035296605437767</v>
       </c>
       <c r="L15">
-        <v>1.010940742711412</v>
+        <v>0.9783592920666325</v>
       </c>
       <c r="M15">
-        <v>1.021821919515923</v>
+        <v>0.976560369497765</v>
       </c>
       <c r="N15">
-        <v>1.007721640537603</v>
+        <v>0.9967892033839627</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004668394373045</v>
+        <v>0.9508821229005034</v>
       </c>
       <c r="D16">
-        <v>1.02662865486379</v>
+        <v>1.022050939175488</v>
       </c>
       <c r="E16">
-        <v>1.007796332197576</v>
+        <v>0.9653067019271926</v>
       </c>
       <c r="F16">
-        <v>1.018932129628978</v>
+        <v>0.9646494780686216</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029544927288855</v>
+        <v>1.043393521742059</v>
       </c>
       <c r="J16">
-        <v>1.011208418713553</v>
+        <v>0.9811062513072984</v>
       </c>
       <c r="K16">
-        <v>1.030099903247808</v>
+        <v>1.035997609433294</v>
       </c>
       <c r="L16">
-        <v>1.011337475299468</v>
+        <v>0.980293323378214</v>
       </c>
       <c r="M16">
-        <v>1.022431597741799</v>
+        <v>0.9796490861901198</v>
       </c>
       <c r="N16">
-        <v>1.007851889491391</v>
+        <v>0.9974503014468278</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005051452856726</v>
+        <v>0.9528853193693809</v>
       </c>
       <c r="D17">
-        <v>1.026773129034443</v>
+        <v>1.022810836359719</v>
       </c>
       <c r="E17">
-        <v>1.008120444136522</v>
+        <v>0.9668758181622236</v>
       </c>
       <c r="F17">
-        <v>1.019389096537539</v>
+        <v>0.9669447438466929</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029563697276315</v>
+        <v>1.043642954352498</v>
       </c>
       <c r="J17">
-        <v>1.011448405046783</v>
+        <v>0.9822827111241421</v>
       </c>
       <c r="K17">
-        <v>1.030171443724583</v>
+        <v>1.036430390534018</v>
       </c>
       <c r="L17">
-        <v>1.011586414153079</v>
+        <v>0.9814906787590233</v>
       </c>
       <c r="M17">
-        <v>1.022813866999529</v>
+        <v>0.9815582852337194</v>
       </c>
       <c r="N17">
-        <v>1.007933551255143</v>
+        <v>0.9978591789131225</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005274952278349</v>
+        <v>0.9540441123743374</v>
       </c>
       <c r="D18">
-        <v>1.026857377938861</v>
+        <v>1.023251248406059</v>
       </c>
       <c r="E18">
-        <v>1.008309597633056</v>
+        <v>0.9677845450554478</v>
       </c>
       <c r="F18">
-        <v>1.019655643645727</v>
+        <v>0.9682721549725349</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029574464784205</v>
+        <v>1.043786045878714</v>
       </c>
       <c r="J18">
-        <v>1.011588389809871</v>
+        <v>0.9829632104733875</v>
       </c>
       <c r="K18">
-        <v>1.030213061568839</v>
+        <v>1.03668035177874</v>
       </c>
       <c r="L18">
-        <v>1.011731644282511</v>
+        <v>0.9821835370673507</v>
       </c>
       <c r="M18">
-        <v>1.023036778440883</v>
+        <v>0.9826619884172456</v>
       </c>
       <c r="N18">
-        <v>1.007981168705495</v>
+        <v>0.9980956303554195</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005351171318009</v>
+        <v>0.9544376239213163</v>
       </c>
       <c r="D19">
-        <v>1.026886101109538</v>
+        <v>1.023400942151206</v>
       </c>
       <c r="E19">
-        <v>1.008374111786643</v>
+        <v>0.9680933107343761</v>
       </c>
       <c r="F19">
-        <v>1.01974653035401</v>
+        <v>0.9687228701838426</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029578105553583</v>
+        <v>1.0438344319702</v>
       </c>
       <c r="J19">
-        <v>1.011636121799599</v>
+        <v>0.9831942897868892</v>
       </c>
       <c r="K19">
-        <v>1.030227233395076</v>
+        <v>1.03676516531789</v>
       </c>
       <c r="L19">
-        <v>1.011781168790274</v>
+        <v>0.982418858988125</v>
       </c>
       <c r="M19">
-        <v>1.023112775347161</v>
+        <v>0.9830366698338592</v>
       </c>
       <c r="N19">
-        <v>1.00799740256348</v>
+        <v>0.9981759132035822</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005010347283887</v>
+        <v>0.9526713988710033</v>
       </c>
       <c r="D20">
-        <v>1.026757630422134</v>
+        <v>1.022729599424178</v>
       </c>
       <c r="E20">
-        <v>1.008085659179791</v>
+        <v>0.9667081446922313</v>
       </c>
       <c r="F20">
-        <v>1.019340067689683</v>
+        <v>0.96669966824221</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029561702120742</v>
+        <v>1.043616441230095</v>
       </c>
       <c r="J20">
-        <v>1.011422656285945</v>
+        <v>0.9821570823262137</v>
       </c>
       <c r="K20">
-        <v>1.030163779529218</v>
+        <v>1.036384213603553</v>
       </c>
       <c r="L20">
-        <v>1.011559702438446</v>
+        <v>0.9813627902715163</v>
       </c>
       <c r="M20">
-        <v>1.022772859305866</v>
+        <v>0.9813544766172232</v>
       </c>
       <c r="N20">
-        <v>1.007924791216287</v>
+        <v>0.9978155224256782</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.003903093503159</v>
+        <v>0.9468138242641811</v>
       </c>
       <c r="D21">
-        <v>1.026339724229104</v>
+        <v>1.020513553615191</v>
       </c>
       <c r="E21">
-        <v>1.007149101637055</v>
+        <v>0.9621269296561425</v>
       </c>
       <c r="F21">
-        <v>1.018018688705476</v>
+        <v>0.9599858239861053</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029506250640667</v>
+        <v>1.04287936236265</v>
       </c>
       <c r="J21">
-        <v>1.010728716385341</v>
+        <v>0.9787167539724435</v>
       </c>
       <c r="K21">
-        <v>1.029956188996813</v>
+        <v>1.035116440557328</v>
       </c>
       <c r="L21">
-        <v>1.010840027721789</v>
+        <v>0.9778631877177127</v>
       </c>
       <c r="M21">
-        <v>1.021667057161096</v>
+        <v>0.9757671132480222</v>
       </c>
       <c r="N21">
-        <v>1.007688555087603</v>
+        <v>0.9966194973548858</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.003207531305793</v>
+        <v>0.9430374376283626</v>
       </c>
       <c r="D22">
-        <v>1.026076799982181</v>
+        <v>1.019093979822405</v>
       </c>
       <c r="E22">
-        <v>1.006561197304721</v>
+        <v>0.9591835950970404</v>
       </c>
       <c r="F22">
-        <v>1.017187937964403</v>
+        <v>0.9556542793969012</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029469762904783</v>
+        <v>1.042393755893394</v>
       </c>
       <c r="J22">
-        <v>1.010292454363565</v>
+        <v>0.9764986217308876</v>
       </c>
       <c r="K22">
-        <v>1.029824681952121</v>
+        <v>1.034296439528969</v>
       </c>
       <c r="L22">
-        <v>1.010387798038532</v>
+        <v>0.975609442702307</v>
       </c>
       <c r="M22">
-        <v>1.020971257231229</v>
+        <v>0.9721585727062301</v>
       </c>
       <c r="N22">
-        <v>1.007539895204705</v>
+        <v>0.9958479287547054</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003576203927677</v>
+        <v>0.9450485733563654</v>
       </c>
       <c r="D23">
-        <v>1.026216196538512</v>
+        <v>1.019849053217971</v>
       </c>
       <c r="E23">
-        <v>1.006872766536364</v>
+        <v>0.9607500956640227</v>
       </c>
       <c r="F23">
-        <v>1.017628329743178</v>
+        <v>0.9579613627098437</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029489259371243</v>
+        <v>1.04265331602026</v>
       </c>
       <c r="J23">
-        <v>1.010523720685779</v>
+        <v>0.9776798988394029</v>
       </c>
       <c r="K23">
-        <v>1.029894489416517</v>
+        <v>1.034733340087248</v>
       </c>
       <c r="L23">
-        <v>1.01062750889651</v>
+        <v>0.9768094359556949</v>
       </c>
       <c r="M23">
-        <v>1.021340164955155</v>
+        <v>0.9740809080299921</v>
       </c>
       <c r="N23">
-        <v>1.007618714759946</v>
+        <v>0.9962588689770848</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005028920913016</v>
+        <v>0.9527680900491295</v>
       </c>
       <c r="D24">
-        <v>1.026764633641311</v>
+        <v>1.02276631561485</v>
       </c>
       <c r="E24">
-        <v>1.008101376681624</v>
+        <v>0.9667839291955541</v>
       </c>
       <c r="F24">
-        <v>1.019362221696668</v>
+        <v>0.9668104424402687</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029562604204099</v>
+        <v>1.043628428774412</v>
       </c>
       <c r="J24">
-        <v>1.011434291027779</v>
+        <v>0.9822138661792914</v>
       </c>
       <c r="K24">
-        <v>1.030167242990805</v>
+        <v>1.036405086605726</v>
       </c>
       <c r="L24">
-        <v>1.011571772225026</v>
+        <v>0.9814205946541018</v>
       </c>
       <c r="M24">
-        <v>1.02279138910188</v>
+        <v>0.9814465994864479</v>
       </c>
       <c r="N24">
-        <v>1.007928749545506</v>
+        <v>0.9978352552044023</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006717380904985</v>
+        <v>0.9613508801247584</v>
       </c>
       <c r="D25">
-        <v>1.027400255263292</v>
+        <v>1.026041249168862</v>
       </c>
       <c r="E25">
-        <v>1.009531206342729</v>
+        <v>0.9735322047177735</v>
       </c>
       <c r="F25">
-        <v>1.021374544595279</v>
+        <v>0.9766361723584432</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029640625409049</v>
+        <v>1.0446661496055</v>
       </c>
       <c r="J25">
-        <v>1.012491144060359</v>
+        <v>0.9872528168844102</v>
       </c>
       <c r="K25">
-        <v>1.030479418675994</v>
+        <v>1.03824832413762</v>
       </c>
       <c r="L25">
-        <v>1.012668645916531</v>
+        <v>0.9865557824850609</v>
       </c>
       <c r="M25">
-        <v>1.024473109964403</v>
+        <v>0.9896083432953153</v>
       </c>
       <c r="N25">
-        <v>1.008287959003933</v>
+        <v>0.9995850473325637</v>
       </c>
     </row>
   </sheetData>
